--- a/data_base/BD.xlsx
+++ b/data_base/BD.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ураборос\Desktop\уник\ИТ\telegramDash1\tg_dash\data_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7633A8A-FAB5-4CB6-A09F-154BF62E3686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E95B81-8395-40ED-876E-4E02A3B31A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Продажи" sheetId="1" r:id="rId1"/>
-    <sheet name="В наличии" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Продажи!$A$1:$E$119</definedName>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="72">
   <si>
     <t>Ноутбук</t>
   </si>
@@ -245,57 +244,6 @@
   </si>
   <si>
     <t>Сумма (в рублях)</t>
-  </si>
-  <si>
-    <t>Рюкзак</t>
-  </si>
-  <si>
-    <t>Компьютерная мышь</t>
-  </si>
-  <si>
-    <t>Электрическая зубная щетка</t>
-  </si>
-  <si>
-    <t>Крем для лица</t>
-  </si>
-  <si>
-    <t>Лак для ногтей</t>
-  </si>
-  <si>
-    <t>Увлажняющий крем</t>
-  </si>
-  <si>
-    <t>Пудра</t>
-  </si>
-  <si>
-    <t>Тушь для ресниц</t>
-  </si>
-  <si>
-    <t>Массажер</t>
-  </si>
-  <si>
-    <t>Парфюм</t>
-  </si>
-  <si>
-    <t>Бальзам для губ</t>
-  </si>
-  <si>
-    <t>Кроссовки</t>
-  </si>
-  <si>
-    <t>Сандалии</t>
-  </si>
-  <si>
-    <t>Куртка</t>
-  </si>
-  <si>
-    <t>Платье</t>
-  </si>
-  <si>
-    <t>Шляпа</t>
-  </si>
-  <si>
-    <t>Ремень</t>
   </si>
 </sst>
 </file>
@@ -339,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -347,7 +295,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -630,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E30"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="H107" sqref="H106:H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,7 +609,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>44927</v>
+        <v>45292</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -679,7 +626,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>44927</v>
+        <v>45293</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -696,7 +643,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>44928</v>
+        <v>45294</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -713,7 +660,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>44928</v>
+        <v>45295</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -730,7 +677,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>44929</v>
+        <v>45296</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -747,7 +694,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>44929</v>
+        <v>45297</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -764,7 +711,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>44930</v>
+        <v>45298</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -781,7 +728,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>44930</v>
+        <v>45299</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -798,7 +745,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>44931</v>
+        <v>45300</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -815,7 +762,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>44931</v>
+        <v>45301</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -832,7 +779,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44932</v>
+        <v>45302</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -849,7 +796,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>44932</v>
+        <v>45303</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -866,7 +813,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44933</v>
+        <v>45304</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -883,7 +830,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>44933</v>
+        <v>45305</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -900,7 +847,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>44934</v>
+        <v>45306</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -917,7 +864,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44934</v>
+        <v>45307</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -934,7 +881,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44935</v>
+        <v>45308</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -951,7 +898,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44935</v>
+        <v>45309</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -968,7 +915,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44936</v>
+        <v>45310</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -985,7 +932,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44936</v>
+        <v>45311</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
@@ -1002,7 +949,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44937</v>
+        <v>45312</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
@@ -1019,7 +966,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44937</v>
+        <v>45313</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -1036,7 +983,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>44938</v>
+        <v>45314</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -1053,7 +1000,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44938</v>
+        <v>45315</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
@@ -1070,7 +1017,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44939</v>
+        <v>45316</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
@@ -1087,7 +1034,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44939</v>
+        <v>45317</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
@@ -1104,7 +1051,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>44940</v>
+        <v>45318</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
@@ -1121,7 +1068,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>44940</v>
+        <v>45319</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
@@ -1138,7 +1085,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>44941</v>
+        <v>45320</v>
       </c>
       <c r="B30" t="s">
         <v>38</v>
@@ -1155,7 +1102,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44941</v>
+        <v>45321</v>
       </c>
       <c r="B31" t="s">
         <v>40</v>
@@ -1172,7 +1119,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44942</v>
+        <v>45322</v>
       </c>
       <c r="B32" t="s">
         <v>41</v>
@@ -1189,7 +1136,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>44942</v>
+        <v>45292</v>
       </c>
       <c r="B33" t="s">
         <v>42</v>
@@ -1206,7 +1153,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>44943</v>
+        <v>45293</v>
       </c>
       <c r="B34" t="s">
         <v>43</v>
@@ -1223,7 +1170,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>44943</v>
+        <v>45294</v>
       </c>
       <c r="B35" t="s">
         <v>44</v>
@@ -1240,7 +1187,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>44944</v>
+        <v>45295</v>
       </c>
       <c r="B36" t="s">
         <v>45</v>
@@ -1257,7 +1204,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>44944</v>
+        <v>45296</v>
       </c>
       <c r="B37" t="s">
         <v>47</v>
@@ -1274,7 +1221,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>44945</v>
+        <v>45297</v>
       </c>
       <c r="B38" t="s">
         <v>48</v>
@@ -1291,7 +1238,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>44945</v>
+        <v>45298</v>
       </c>
       <c r="B39" t="s">
         <v>49</v>
@@ -1308,7 +1255,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>44946</v>
+        <v>45299</v>
       </c>
       <c r="B40" t="s">
         <v>50</v>
@@ -1325,7 +1272,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>44946</v>
+        <v>45300</v>
       </c>
       <c r="B41" t="s">
         <v>51</v>
@@ -1342,7 +1289,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>44947</v>
+        <v>45301</v>
       </c>
       <c r="B42" t="s">
         <v>53</v>
@@ -1359,7 +1306,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>44947</v>
+        <v>45302</v>
       </c>
       <c r="B43" t="s">
         <v>52</v>
@@ -1376,7 +1323,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>44948</v>
+        <v>45303</v>
       </c>
       <c r="B44" t="s">
         <v>54</v>
@@ -1393,7 +1340,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>44948</v>
+        <v>45304</v>
       </c>
       <c r="B45" t="s">
         <v>55</v>
@@ -1410,7 +1357,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>44949</v>
+        <v>45305</v>
       </c>
       <c r="B46" t="s">
         <v>56</v>
@@ -1427,7 +1374,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>44949</v>
+        <v>45306</v>
       </c>
       <c r="B47" t="s">
         <v>57</v>
@@ -1444,7 +1391,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>44950</v>
+        <v>45307</v>
       </c>
       <c r="B48" t="s">
         <v>58</v>
@@ -1461,7 +1408,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>44950</v>
+        <v>45308</v>
       </c>
       <c r="B49" t="s">
         <v>59</v>
@@ -1478,7 +1425,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>44951</v>
+        <v>45309</v>
       </c>
       <c r="B50" t="s">
         <v>41</v>
@@ -1495,7 +1442,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>44951</v>
+        <v>45310</v>
       </c>
       <c r="B51" t="s">
         <v>42</v>
@@ -1512,7 +1459,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>44952</v>
+        <v>45311</v>
       </c>
       <c r="B52" t="s">
         <v>19</v>
@@ -1529,7 +1476,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>44952</v>
+        <v>45312</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
@@ -1546,7 +1493,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>44953</v>
+        <v>45313</v>
       </c>
       <c r="B54" t="s">
         <v>60</v>
@@ -1563,7 +1510,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>44953</v>
+        <v>45314</v>
       </c>
       <c r="B55" t="s">
         <v>62</v>
@@ -1580,7 +1527,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>44954</v>
+        <v>45315</v>
       </c>
       <c r="B56" t="s">
         <v>63</v>
@@ -1597,7 +1544,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>44954</v>
+        <v>45316</v>
       </c>
       <c r="B57" t="s">
         <v>64</v>
@@ -1614,7 +1561,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>44955</v>
+        <v>45317</v>
       </c>
       <c r="B58" t="s">
         <v>65</v>
@@ -1631,7 +1578,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>44955</v>
+        <v>45318</v>
       </c>
       <c r="B59" t="s">
         <v>66</v>
@@ -1648,7 +1595,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>44956</v>
+        <v>45319</v>
       </c>
       <c r="B60" t="s">
         <v>2</v>
@@ -1665,7 +1612,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>44956</v>
+        <v>45320</v>
       </c>
       <c r="B61" t="s">
         <v>0</v>
@@ -1682,7 +1629,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>44957</v>
+        <v>45321</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -1699,7 +1646,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>44957</v>
+        <v>45322</v>
       </c>
       <c r="B63" t="s">
         <v>4</v>
@@ -1716,7 +1663,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>44958</v>
+        <v>45294</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -1733,7 +1680,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>44958</v>
+        <v>45295</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
@@ -1750,7 +1697,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>44959</v>
+        <v>45296</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -1767,7 +1714,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>44959</v>
+        <v>45297</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
@@ -1784,7 +1731,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>44960</v>
+        <v>45298</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
@@ -1801,7 +1748,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>44960</v>
+        <v>45299</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
@@ -1818,7 +1765,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>44961</v>
+        <v>45300</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
@@ -1835,7 +1782,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>44961</v>
+        <v>45301</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
@@ -1852,7 +1799,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>44962</v>
+        <v>45302</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
@@ -1869,7 +1816,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>44962</v>
+        <v>45303</v>
       </c>
       <c r="B73" t="s">
         <v>18</v>
@@ -1886,7 +1833,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>44963</v>
+        <v>45304</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
@@ -1903,7 +1850,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>44963</v>
+        <v>45305</v>
       </c>
       <c r="B75" t="s">
         <v>21</v>
@@ -1920,7 +1867,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>44964</v>
+        <v>45306</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
@@ -1937,7 +1884,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>44964</v>
+        <v>45307</v>
       </c>
       <c r="B77" t="s">
         <v>24</v>
@@ -1954,7 +1901,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>44965</v>
+        <v>45308</v>
       </c>
       <c r="B78" t="s">
         <v>25</v>
@@ -1971,7 +1918,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>44965</v>
+        <v>45309</v>
       </c>
       <c r="B79" t="s">
         <v>27</v>
@@ -1988,7 +1935,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>44966</v>
+        <v>45310</v>
       </c>
       <c r="B80" t="s">
         <v>28</v>
@@ -2005,7 +1952,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>44966</v>
+        <v>45311</v>
       </c>
       <c r="B81" t="s">
         <v>29</v>
@@ -2022,7 +1969,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>44967</v>
+        <v>45312</v>
       </c>
       <c r="B82" t="s">
         <v>30</v>
@@ -2039,7 +1986,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>44967</v>
+        <v>45313</v>
       </c>
       <c r="B83" t="s">
         <v>32</v>
@@ -2056,7 +2003,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>44968</v>
+        <v>45314</v>
       </c>
       <c r="B84" t="s">
         <v>33</v>
@@ -2073,7 +2020,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>44968</v>
+        <v>45315</v>
       </c>
       <c r="B85" t="s">
         <v>34</v>
@@ -2090,7 +2037,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>44969</v>
+        <v>45316</v>
       </c>
       <c r="B86" t="s">
         <v>35</v>
@@ -2107,7 +2054,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>44969</v>
+        <v>45317</v>
       </c>
       <c r="B87" t="s">
         <v>37</v>
@@ -2124,7 +2071,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>44970</v>
+        <v>45318</v>
       </c>
       <c r="B88" t="s">
         <v>38</v>
@@ -2141,7 +2088,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>44970</v>
+        <v>45319</v>
       </c>
       <c r="B89" t="s">
         <v>40</v>
@@ -2158,7 +2105,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>44971</v>
+        <v>45320</v>
       </c>
       <c r="B90" t="s">
         <v>41</v>
@@ -2175,7 +2122,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>44971</v>
+        <v>45321</v>
       </c>
       <c r="B91" t="s">
         <v>42</v>
@@ -2192,7 +2139,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>44972</v>
+        <v>45322</v>
       </c>
       <c r="B92" t="s">
         <v>43</v>
@@ -2209,7 +2156,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>44972</v>
+        <v>45323</v>
       </c>
       <c r="B93" t="s">
         <v>44</v>
@@ -2226,7 +2173,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>44973</v>
+        <v>45324</v>
       </c>
       <c r="B94" t="s">
         <v>45</v>
@@ -2243,7 +2190,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>44973</v>
+        <v>45325</v>
       </c>
       <c r="B95" t="s">
         <v>47</v>
@@ -2260,7 +2207,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>44974</v>
+        <v>45326</v>
       </c>
       <c r="B96" t="s">
         <v>48</v>
@@ -2277,7 +2224,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>44974</v>
+        <v>45327</v>
       </c>
       <c r="B97" t="s">
         <v>49</v>
@@ -2294,7 +2241,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>44975</v>
+        <v>45328</v>
       </c>
       <c r="B98" t="s">
         <v>50</v>
@@ -2311,7 +2258,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>44975</v>
+        <v>45329</v>
       </c>
       <c r="B99" t="s">
         <v>51</v>
@@ -2328,7 +2275,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>44976</v>
+        <v>45330</v>
       </c>
       <c r="B100" t="s">
         <v>53</v>
@@ -2345,7 +2292,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>44976</v>
+        <v>45331</v>
       </c>
       <c r="B101" t="s">
         <v>52</v>
@@ -2362,7 +2309,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>44977</v>
+        <v>45332</v>
       </c>
       <c r="B102" t="s">
         <v>54</v>
@@ -2379,7 +2326,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>44977</v>
+        <v>45333</v>
       </c>
       <c r="B103" t="s">
         <v>55</v>
@@ -2396,7 +2343,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>44978</v>
+        <v>45334</v>
       </c>
       <c r="B104" t="s">
         <v>56</v>
@@ -2413,7 +2360,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>44978</v>
+        <v>45335</v>
       </c>
       <c r="B105" t="s">
         <v>57</v>
@@ -2430,7 +2377,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>44979</v>
+        <v>45627</v>
       </c>
       <c r="B106" t="s">
         <v>58</v>
@@ -2447,7 +2394,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>44979</v>
+        <v>45628</v>
       </c>
       <c r="B107" t="s">
         <v>59</v>
@@ -2464,7 +2411,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>44980</v>
+        <v>45629</v>
       </c>
       <c r="B108" t="s">
         <v>41</v>
@@ -2481,7 +2428,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>44980</v>
+        <v>45630</v>
       </c>
       <c r="B109" t="s">
         <v>42</v>
@@ -2498,7 +2445,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>44981</v>
+        <v>45631</v>
       </c>
       <c r="B110" t="s">
         <v>19</v>
@@ -2515,7 +2462,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>44981</v>
+        <v>45632</v>
       </c>
       <c r="B111" t="s">
         <v>21</v>
@@ -2532,7 +2479,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>44982</v>
+        <v>45633</v>
       </c>
       <c r="B112" t="s">
         <v>60</v>
@@ -2549,7 +2496,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>44982</v>
+        <v>45634</v>
       </c>
       <c r="B113" t="s">
         <v>62</v>
@@ -2566,7 +2513,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>44983</v>
+        <v>45635</v>
       </c>
       <c r="B114" t="s">
         <v>63</v>
@@ -2583,7 +2530,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>44983</v>
+        <v>45636</v>
       </c>
       <c r="B115" t="s">
         <v>64</v>
@@ -2600,7 +2547,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>44984</v>
+        <v>45637</v>
       </c>
       <c r="B116" t="s">
         <v>65</v>
@@ -2617,7 +2564,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>44984</v>
+        <v>45638</v>
       </c>
       <c r="B117" t="s">
         <v>66</v>
@@ -2634,7 +2581,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>44985</v>
+        <v>45639</v>
       </c>
       <c r="B118" t="s">
         <v>2</v>
@@ -2651,7 +2598,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>44985</v>
+        <v>45640</v>
       </c>
       <c r="B119" t="s">
         <v>0</v>
@@ -2664,714 +2611,6 @@
       </c>
       <c r="E119">
         <v>220000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD726088-FB91-43B8-A1AB-6EC2869380B7}">
-  <dimension ref="A1:D49"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>100</v>
-      </c>
-      <c r="D2" s="3">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>100</v>
-      </c>
-      <c r="D3" s="3">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>100</v>
-      </c>
-      <c r="D4" s="3">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>100</v>
-      </c>
-      <c r="D5" s="3">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
-        <v>100</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3">
-        <v>100</v>
-      </c>
-      <c r="D7" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3">
-        <v>100</v>
-      </c>
-      <c r="D8" s="3">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3">
-        <v>100</v>
-      </c>
-      <c r="D9" s="3">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3">
-        <v>100</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3">
-        <v>100</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3">
-        <v>100</v>
-      </c>
-      <c r="D12" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>100</v>
-      </c>
-      <c r="D13" s="3">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="3">
-        <v>100</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="3">
-        <v>100</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="3">
-        <v>100</v>
-      </c>
-      <c r="D16" s="3">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="3">
-        <v>100</v>
-      </c>
-      <c r="D17" s="3">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="3">
-        <v>100</v>
-      </c>
-      <c r="D18" s="3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="3">
-        <v>100</v>
-      </c>
-      <c r="D19" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="3">
-        <v>100</v>
-      </c>
-      <c r="D20" s="3">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="3">
-        <v>100</v>
-      </c>
-      <c r="D21" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="3">
-        <v>100</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="3">
-        <v>100</v>
-      </c>
-      <c r="D23" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="3">
-        <v>100</v>
-      </c>
-      <c r="D24" s="3">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="3">
-        <v>100</v>
-      </c>
-      <c r="D25" s="3">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="3">
-        <v>100</v>
-      </c>
-      <c r="D26" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="3">
-        <v>100</v>
-      </c>
-      <c r="D27" s="3">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="3">
-        <v>100</v>
-      </c>
-      <c r="D28" s="3">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="3">
-        <v>100</v>
-      </c>
-      <c r="D29" s="3">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="3">
-        <v>100</v>
-      </c>
-      <c r="D30" s="3">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="3">
-        <v>100</v>
-      </c>
-      <c r="D31" s="3">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="3">
-        <v>100</v>
-      </c>
-      <c r="D32" s="3">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3">
-        <v>100</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34">
-        <v>100</v>
-      </c>
-      <c r="D34">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35">
-        <v>100</v>
-      </c>
-      <c r="D35">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36">
-        <v>100</v>
-      </c>
-      <c r="D36">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37">
-        <v>100</v>
-      </c>
-      <c r="D37">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38">
-        <v>100</v>
-      </c>
-      <c r="D38">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39">
-        <v>100</v>
-      </c>
-      <c r="D39">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40">
-        <v>100</v>
-      </c>
-      <c r="D40">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41">
-        <v>100</v>
-      </c>
-      <c r="D41">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42">
-        <v>100</v>
-      </c>
-      <c r="D42">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43">
-        <v>100</v>
-      </c>
-      <c r="D43">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44">
-        <v>100</v>
-      </c>
-      <c r="D44">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45">
-        <v>100</v>
-      </c>
-      <c r="D45">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46">
-        <v>100</v>
-      </c>
-      <c r="D46">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47">
-        <v>100</v>
-      </c>
-      <c r="D47">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48">
-        <v>100</v>
-      </c>
-      <c r="D48">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49">
-        <v>100</v>
-      </c>
-      <c r="D49">
-        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/data_base/BD.xlsx
+++ b/data_base/BD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ураборос\Desktop\уник\ИТ\telegramDash1\tg_dash\data_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E95B81-8395-40ED-876E-4E02A3B31A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774D05FA-B2DB-4680-93BA-869153E4827B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="H107" sqref="H106:H107"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="N115" sqref="N115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +609,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45292</v>
+        <v>45629</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45293</v>
+        <v>45629</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45294</v>
+        <v>45629</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45295</v>
+        <v>45629</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45296</v>
+        <v>45629</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45297</v>
+        <v>45629</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45298</v>
+        <v>45629</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45299</v>
+        <v>45629</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45300</v>
+        <v>45629</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45301</v>
+        <v>45629</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45302</v>
+        <v>45629</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45303</v>
+        <v>45629</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45304</v>
+        <v>45629</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -830,7 +830,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45305</v>
+        <v>45629</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45306</v>
+        <v>45629</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45307</v>
+        <v>45629</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45308</v>
+        <v>45629</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45309</v>
+        <v>45629</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45310</v>
+        <v>45629</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45311</v>
+        <v>45629</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45312</v>
+        <v>45629</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45313</v>
+        <v>45629</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45314</v>
+        <v>45629</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45315</v>
+        <v>45629</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45316</v>
+        <v>45629</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45317</v>
+        <v>45629</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45318</v>
+        <v>45629</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45319</v>
+        <v>45629</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45320</v>
+        <v>45629</v>
       </c>
       <c r="B30" t="s">
         <v>38</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45321</v>
+        <v>45629</v>
       </c>
       <c r="B31" t="s">
         <v>40</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45322</v>
+        <v>45629</v>
       </c>
       <c r="B32" t="s">
         <v>41</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45292</v>
+        <v>45629</v>
       </c>
       <c r="B33" t="s">
         <v>42</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45293</v>
+        <v>45629</v>
       </c>
       <c r="B34" t="s">
         <v>43</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45294</v>
+        <v>45629</v>
       </c>
       <c r="B35" t="s">
         <v>44</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45295</v>
+        <v>45629</v>
       </c>
       <c r="B36" t="s">
         <v>45</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45296</v>
+        <v>45629</v>
       </c>
       <c r="B37" t="s">
         <v>47</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45297</v>
+        <v>45629</v>
       </c>
       <c r="B38" t="s">
         <v>48</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45298</v>
+        <v>45629</v>
       </c>
       <c r="B39" t="s">
         <v>49</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45299</v>
+        <v>45629</v>
       </c>
       <c r="B40" t="s">
         <v>50</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45300</v>
+        <v>45629</v>
       </c>
       <c r="B41" t="s">
         <v>51</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45301</v>
+        <v>45629</v>
       </c>
       <c r="B42" t="s">
         <v>53</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45302</v>
+        <v>45629</v>
       </c>
       <c r="B43" t="s">
         <v>52</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45303</v>
+        <v>45629</v>
       </c>
       <c r="B44" t="s">
         <v>54</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45304</v>
+        <v>45629</v>
       </c>
       <c r="B45" t="s">
         <v>55</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45305</v>
+        <v>45629</v>
       </c>
       <c r="B46" t="s">
         <v>56</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45306</v>
+        <v>45629</v>
       </c>
       <c r="B47" t="s">
         <v>57</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45307</v>
+        <v>45629</v>
       </c>
       <c r="B48" t="s">
         <v>58</v>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45308</v>
+        <v>45629</v>
       </c>
       <c r="B49" t="s">
         <v>59</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45309</v>
+        <v>45629</v>
       </c>
       <c r="B50" t="s">
         <v>41</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>45310</v>
+        <v>45629</v>
       </c>
       <c r="B51" t="s">
         <v>42</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>45311</v>
+        <v>45629</v>
       </c>
       <c r="B52" t="s">
         <v>19</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>45312</v>
+        <v>45629</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>45313</v>
+        <v>45629</v>
       </c>
       <c r="B54" t="s">
         <v>60</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>45314</v>
+        <v>45629</v>
       </c>
       <c r="B55" t="s">
         <v>62</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>45315</v>
+        <v>45629</v>
       </c>
       <c r="B56" t="s">
         <v>63</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>45316</v>
+        <v>45629</v>
       </c>
       <c r="B57" t="s">
         <v>64</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>45317</v>
+        <v>45629</v>
       </c>
       <c r="B58" t="s">
         <v>65</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>45318</v>
+        <v>45629</v>
       </c>
       <c r="B59" t="s">
         <v>66</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>45319</v>
+        <v>45629</v>
       </c>
       <c r="B60" t="s">
         <v>2</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>45320</v>
+        <v>45629</v>
       </c>
       <c r="B61" t="s">
         <v>0</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>45321</v>
+        <v>45629</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>45322</v>
+        <v>45629</v>
       </c>
       <c r="B63" t="s">
         <v>4</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>45294</v>
+        <v>45629</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>45295</v>
+        <v>45629</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>45296</v>
+        <v>45629</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>45297</v>
+        <v>45629</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>45298</v>
+        <v>45629</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>45299</v>
+        <v>45629</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>45300</v>
+        <v>45629</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>45301</v>
+        <v>45629</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>45302</v>
+        <v>45629</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>45303</v>
+        <v>45629</v>
       </c>
       <c r="B73" t="s">
         <v>18</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>45304</v>
+        <v>45629</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>45305</v>
+        <v>45629</v>
       </c>
       <c r="B75" t="s">
         <v>21</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>45306</v>
+        <v>45629</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>45307</v>
+        <v>45629</v>
       </c>
       <c r="B77" t="s">
         <v>24</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>45308</v>
+        <v>45629</v>
       </c>
       <c r="B78" t="s">
         <v>25</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>45309</v>
+        <v>45629</v>
       </c>
       <c r="B79" t="s">
         <v>27</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>45310</v>
+        <v>45629</v>
       </c>
       <c r="B80" t="s">
         <v>28</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>45311</v>
+        <v>45629</v>
       </c>
       <c r="B81" t="s">
         <v>29</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>45312</v>
+        <v>45629</v>
       </c>
       <c r="B82" t="s">
         <v>30</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>45313</v>
+        <v>45629</v>
       </c>
       <c r="B83" t="s">
         <v>32</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>45314</v>
+        <v>45629</v>
       </c>
       <c r="B84" t="s">
         <v>33</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>45315</v>
+        <v>45629</v>
       </c>
       <c r="B85" t="s">
         <v>34</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>45316</v>
+        <v>45629</v>
       </c>
       <c r="B86" t="s">
         <v>35</v>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>45317</v>
+        <v>45629</v>
       </c>
       <c r="B87" t="s">
         <v>37</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>45318</v>
+        <v>45629</v>
       </c>
       <c r="B88" t="s">
         <v>38</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>45319</v>
+        <v>45629</v>
       </c>
       <c r="B89" t="s">
         <v>40</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>45320</v>
+        <v>45629</v>
       </c>
       <c r="B90" t="s">
         <v>41</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>45321</v>
+        <v>45629</v>
       </c>
       <c r="B91" t="s">
         <v>42</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>45322</v>
+        <v>45629</v>
       </c>
       <c r="B92" t="s">
         <v>43</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>45323</v>
+        <v>45629</v>
       </c>
       <c r="B93" t="s">
         <v>44</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>45324</v>
+        <v>45629</v>
       </c>
       <c r="B94" t="s">
         <v>45</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>45325</v>
+        <v>45629</v>
       </c>
       <c r="B95" t="s">
         <v>47</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>45326</v>
+        <v>45629</v>
       </c>
       <c r="B96" t="s">
         <v>48</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>45327</v>
+        <v>45629</v>
       </c>
       <c r="B97" t="s">
         <v>49</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>45328</v>
+        <v>45629</v>
       </c>
       <c r="B98" t="s">
         <v>50</v>
@@ -2258,7 +2258,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>45329</v>
+        <v>45629</v>
       </c>
       <c r="B99" t="s">
         <v>51</v>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>45330</v>
+        <v>45629</v>
       </c>
       <c r="B100" t="s">
         <v>53</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>45331</v>
+        <v>45629</v>
       </c>
       <c r="B101" t="s">
         <v>52</v>
@@ -2309,7 +2309,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>45332</v>
+        <v>45629</v>
       </c>
       <c r="B102" t="s">
         <v>54</v>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>45333</v>
+        <v>45629</v>
       </c>
       <c r="B103" t="s">
         <v>55</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>45334</v>
+        <v>45629</v>
       </c>
       <c r="B104" t="s">
         <v>56</v>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>45335</v>
+        <v>45629</v>
       </c>
       <c r="B105" t="s">
         <v>57</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>45627</v>
+        <v>45629</v>
       </c>
       <c r="B106" t="s">
         <v>58</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="B107" t="s">
         <v>59</v>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>45630</v>
+        <v>45629</v>
       </c>
       <c r="B109" t="s">
         <v>42</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>45631</v>
+        <v>45629</v>
       </c>
       <c r="B110" t="s">
         <v>19</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>45632</v>
+        <v>45629</v>
       </c>
       <c r="B111" t="s">
         <v>21</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>45633</v>
+        <v>45629</v>
       </c>
       <c r="B112" t="s">
         <v>60</v>
@@ -2496,7 +2496,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>45634</v>
+        <v>45629</v>
       </c>
       <c r="B113" t="s">
         <v>62</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>45635</v>
+        <v>45629</v>
       </c>
       <c r="B114" t="s">
         <v>63</v>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>45636</v>
+        <v>45629</v>
       </c>
       <c r="B115" t="s">
         <v>64</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>45637</v>
+        <v>45629</v>
       </c>
       <c r="B116" t="s">
         <v>65</v>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>45638</v>
+        <v>45629</v>
       </c>
       <c r="B117" t="s">
         <v>66</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>45639</v>
+        <v>45629</v>
       </c>
       <c r="B118" t="s">
         <v>2</v>
@@ -2598,7 +2598,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>45640</v>
+        <v>45629</v>
       </c>
       <c r="B119" t="s">
         <v>0</v>
